--- a/database/industries/methanol/shekolor/cashflow/quarterly.xlsx
+++ b/database/industries/methanol/shekolor/cashflow/quarterly.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="e:\Trade\database\industries\methanol\shekolor\cashflow\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="c:\Users\EBRAHIMI\Desktop\Trade\database\industries\methanol\shekolor\cashflow\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DAFB08C-767F-4385-8128-3213C435478E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E72386E8-1C8B-48A1-BDDD-337B52EB3667}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3684" yWindow="2748" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11025" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="72">
   <si>
     <t>Pouya Finance</t>
   </si>
@@ -37,6 +37,21 @@
     <t>دوره مالی</t>
   </si>
   <si>
+    <t>فصل سوم منتهی به 1399/02</t>
+  </si>
+  <si>
+    <t>فصل چهارم منتهی به 1399/12</t>
+  </si>
+  <si>
+    <t>فصل اول منتهی به 1399/08</t>
+  </si>
+  <si>
+    <t>فصل دوم منتهی به 1400/06</t>
+  </si>
+  <si>
+    <t>فصل سوم منتهی به 1400/09</t>
+  </si>
+  <si>
     <t>فصل چهارم منتهی به 1400/08</t>
   </si>
   <si>
@@ -53,6 +68,18 @@
   </si>
   <si>
     <t>تاریخ انتشار</t>
+  </si>
+  <si>
+    <t>1399-03-30</t>
+  </si>
+  <si>
+    <t>1400-10-08 (15)</t>
+  </si>
+  <si>
+    <t>1399-09-30</t>
+  </si>
+  <si>
+    <t>1400-07-29</t>
   </si>
   <si>
     <t>1401-10-28 (10)</t>
@@ -692,20 +719,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:H57"/>
+  <dimension ref="B1:M57"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="74" customWidth="1"/>
     <col min="3" max="3" width="5" customWidth="1"/>
-    <col min="4" max="4" width="31" customWidth="1"/>
-    <col min="5" max="7" width="29" customWidth="1"/>
-    <col min="8" max="8" width="31" customWidth="1"/>
+    <col min="4" max="4" width="29" customWidth="1"/>
+    <col min="5" max="5" width="31" customWidth="1"/>
+    <col min="6" max="8" width="29" customWidth="1"/>
+    <col min="9" max="9" width="31" customWidth="1"/>
+    <col min="10" max="12" width="29" customWidth="1"/>
+    <col min="13" max="13" width="31" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -713,8 +743,13 @@
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
-    </row>
-    <row r="2" spans="2:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="I1" s="1"/>
+      <c r="J1" s="1"/>
+      <c r="K1" s="1"/>
+      <c r="L1" s="1"/>
+      <c r="M1" s="1"/>
+    </row>
+    <row r="2" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -724,8 +759,13 @@
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
-    </row>
-    <row r="3" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="I2" s="1"/>
+      <c r="J2" s="1"/>
+      <c r="K2" s="1"/>
+      <c r="L2" s="1"/>
+      <c r="M2" s="1"/>
+    </row>
+    <row r="3" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
@@ -735,8 +775,13 @@
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
-    </row>
-    <row r="4" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="I3" s="1"/>
+      <c r="J3" s="1"/>
+      <c r="K3" s="1"/>
+      <c r="L3" s="1"/>
+      <c r="M3" s="1"/>
+    </row>
+    <row r="4" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -744,8 +789,13 @@
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
-    </row>
-    <row r="5" spans="2:8" ht="40.799999999999997" x14ac:dyDescent="0.75">
+      <c r="I4" s="1"/>
+      <c r="J4" s="1"/>
+      <c r="K4" s="1"/>
+      <c r="L4" s="1"/>
+      <c r="M4" s="1"/>
+    </row>
+    <row r="5" spans="2:13" ht="42" x14ac:dyDescent="0.65">
       <c r="B5" s="4" t="s">
         <v>2</v>
       </c>
@@ -755,8 +805,13 @@
       <c r="F5" s="4"/>
       <c r="G5" s="4"/>
       <c r="H5" s="4"/>
-    </row>
-    <row r="6" spans="2:8" ht="40.799999999999997" x14ac:dyDescent="0.75">
+      <c r="I5" s="4"/>
+      <c r="J5" s="4"/>
+      <c r="K5" s="4"/>
+      <c r="L5" s="4"/>
+      <c r="M5" s="4"/>
+    </row>
+    <row r="6" spans="2:13" ht="42" x14ac:dyDescent="0.65">
       <c r="B6" s="5" t="s">
         <v>3</v>
       </c>
@@ -766,8 +821,13 @@
       <c r="F6" s="4"/>
       <c r="G6" s="4"/>
       <c r="H6" s="4"/>
-    </row>
-    <row r="7" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="I6" s="4"/>
+      <c r="J6" s="4"/>
+      <c r="K6" s="4"/>
+      <c r="L6" s="4"/>
+      <c r="M6" s="4"/>
+    </row>
+    <row r="7" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -775,8 +835,13 @@
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
-    </row>
-    <row r="8" spans="2:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="I7" s="1"/>
+      <c r="J7" s="1"/>
+      <c r="K7" s="1"/>
+      <c r="L7" s="1"/>
+      <c r="M7" s="1"/>
+    </row>
+    <row r="8" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B8" s="7" t="s">
         <v>4</v>
       </c>
@@ -796,29 +861,57 @@
       <c r="H8" s="6" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="9" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="I8" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="J8" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K8" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="L8" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="M8" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B9" s="8" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C9" s="9"/>
       <c r="D9" s="9" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="E9" s="9" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="F9" s="9" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="G9" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="H9" s="9" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="10" spans="2:8" x14ac:dyDescent="0.3">
+        <v>19</v>
+      </c>
+      <c r="H9" s="9"/>
+      <c r="I9" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="J9" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="K9" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="L9" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="M9" s="9" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="10" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B10" s="10"/>
       <c r="C10" s="11"/>
       <c r="D10" s="11"/>
@@ -826,10 +919,15 @@
       <c r="F10" s="11"/>
       <c r="G10" s="11"/>
       <c r="H10" s="11"/>
-    </row>
-    <row r="11" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="I10" s="11"/>
+      <c r="J10" s="11"/>
+      <c r="K10" s="11"/>
+      <c r="L10" s="11"/>
+      <c r="M10" s="11"/>
+    </row>
+    <row r="11" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B11" s="12" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="C11" s="13"/>
       <c r="D11" s="13"/>
@@ -837,73 +935,123 @@
       <c r="F11" s="13"/>
       <c r="G11" s="13"/>
       <c r="H11" s="13"/>
-    </row>
-    <row r="12" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="I11" s="13"/>
+      <c r="J11" s="13"/>
+      <c r="K11" s="13"/>
+      <c r="L11" s="13"/>
+      <c r="M11" s="13"/>
+    </row>
+    <row r="12" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B12" s="14" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="C12" s="15"/>
-      <c r="D12" s="15" t="s">
-        <v>18</v>
+      <c r="D12" s="15">
+        <v>322133</v>
       </c>
       <c r="E12" s="15">
+        <v>123623</v>
+      </c>
+      <c r="F12" s="15">
+        <v>404946</v>
+      </c>
+      <c r="G12" s="15">
+        <v>249630</v>
+      </c>
+      <c r="H12" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="I12" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="J12" s="15">
         <v>1023949</v>
       </c>
-      <c r="F12" s="15">
+      <c r="K12" s="15">
         <v>1455572</v>
       </c>
-      <c r="G12" s="15">
+      <c r="L12" s="15">
         <v>836581</v>
       </c>
-      <c r="H12" s="15">
+      <c r="M12" s="15">
         <v>1614240</v>
       </c>
     </row>
-    <row r="13" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B13" s="10" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="C13" s="11"/>
-      <c r="D13" s="11" t="s">
-        <v>18</v>
+      <c r="D13" s="11">
+        <v>-51897</v>
       </c>
       <c r="E13" s="11">
+        <v>58329</v>
+      </c>
+      <c r="F13" s="11">
+        <v>0</v>
+      </c>
+      <c r="G13" s="11">
+        <v>-89813</v>
+      </c>
+      <c r="H13" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="I13" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="J13" s="11">
         <v>-16787</v>
       </c>
-      <c r="F13" s="11">
+      <c r="K13" s="11">
         <v>-42876</v>
       </c>
-      <c r="G13" s="11">
+      <c r="L13" s="11">
         <v>-37987</v>
       </c>
-      <c r="H13" s="11">
+      <c r="M13" s="11">
         <v>-59283</v>
       </c>
     </row>
-    <row r="14" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B14" s="16" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="C14" s="17"/>
-      <c r="D14" s="17" t="s">
-        <v>18</v>
+      <c r="D14" s="17">
+        <v>270236</v>
       </c>
       <c r="E14" s="17">
+        <v>181952</v>
+      </c>
+      <c r="F14" s="17">
+        <v>404946</v>
+      </c>
+      <c r="G14" s="17">
+        <v>159817</v>
+      </c>
+      <c r="H14" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="I14" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="J14" s="17">
         <v>1007162</v>
       </c>
-      <c r="F14" s="17">
+      <c r="K14" s="17">
         <v>1412696</v>
       </c>
-      <c r="G14" s="17">
+      <c r="L14" s="17">
         <v>798594</v>
       </c>
-      <c r="H14" s="17">
+      <c r="M14" s="17">
         <v>1554957</v>
       </c>
     </row>
-    <row r="15" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B15" s="12" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="C15" s="13"/>
       <c r="D15" s="13"/>
@@ -911,14 +1059,19 @@
       <c r="F15" s="13"/>
       <c r="G15" s="13"/>
       <c r="H15" s="13"/>
-    </row>
-    <row r="16" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="I15" s="13"/>
+      <c r="J15" s="13"/>
+      <c r="K15" s="13"/>
+      <c r="L15" s="13"/>
+      <c r="M15" s="13"/>
+    </row>
+    <row r="16" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B16" s="14" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="C16" s="15"/>
-      <c r="D16" s="15" t="s">
-        <v>18</v>
+      <c r="D16" s="15">
+        <v>0</v>
       </c>
       <c r="E16" s="15">
         <v>0</v>
@@ -927,40 +1080,70 @@
         <v>0</v>
       </c>
       <c r="G16" s="15">
-        <v>0</v>
-      </c>
-      <c r="H16" s="15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="2:8" x14ac:dyDescent="0.3">
+        <v>2013</v>
+      </c>
+      <c r="H16" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="I16" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="J16" s="15">
+        <v>0</v>
+      </c>
+      <c r="K16" s="15">
+        <v>0</v>
+      </c>
+      <c r="L16" s="15">
+        <v>0</v>
+      </c>
+      <c r="M16" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B17" s="10" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="C17" s="11"/>
-      <c r="D17" s="11" t="s">
-        <v>18</v>
+      <c r="D17" s="11">
+        <v>-62632</v>
       </c>
       <c r="E17" s="11">
+        <v>-53237</v>
+      </c>
+      <c r="F17" s="11">
+        <v>-12138</v>
+      </c>
+      <c r="G17" s="11">
+        <v>-274745</v>
+      </c>
+      <c r="H17" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="I17" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="J17" s="11">
         <v>-119015</v>
       </c>
-      <c r="F17" s="11">
+      <c r="K17" s="11">
         <v>-145048</v>
       </c>
-      <c r="G17" s="11">
+      <c r="L17" s="11">
         <v>-70643</v>
       </c>
-      <c r="H17" s="11">
+      <c r="M17" s="11">
         <v>-431024</v>
       </c>
     </row>
-    <row r="18" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B18" s="14" t="s">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="C18" s="15"/>
-      <c r="D18" s="15" t="s">
-        <v>18</v>
+      <c r="D18" s="15">
+        <v>0</v>
       </c>
       <c r="E18" s="15">
         <v>0</v>
@@ -971,17 +1154,32 @@
       <c r="G18" s="15">
         <v>0</v>
       </c>
-      <c r="H18" s="15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="H18" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="I18" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="J18" s="15">
+        <v>0</v>
+      </c>
+      <c r="K18" s="15">
+        <v>0</v>
+      </c>
+      <c r="L18" s="15">
+        <v>0</v>
+      </c>
+      <c r="M18" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B19" s="10" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="C19" s="11"/>
-      <c r="D19" s="11" t="s">
-        <v>18</v>
+      <c r="D19" s="11">
+        <v>0</v>
       </c>
       <c r="E19" s="11">
         <v>0</v>
@@ -992,38 +1190,68 @@
       <c r="G19" s="11">
         <v>0</v>
       </c>
-      <c r="H19" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="H19" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="I19" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="J19" s="11">
+        <v>0</v>
+      </c>
+      <c r="K19" s="11">
+        <v>0</v>
+      </c>
+      <c r="L19" s="11">
+        <v>0</v>
+      </c>
+      <c r="M19" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B20" s="14" t="s">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="C20" s="15"/>
-      <c r="D20" s="15" t="s">
-        <v>18</v>
+      <c r="D20" s="15">
+        <v>0</v>
       </c>
       <c r="E20" s="15">
+        <v>-32828</v>
+      </c>
+      <c r="F20" s="15">
+        <v>0</v>
+      </c>
+      <c r="G20" s="15">
+        <v>-417</v>
+      </c>
+      <c r="H20" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="I20" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="J20" s="15">
         <v>-1207</v>
       </c>
-      <c r="F20" s="15">
+      <c r="K20" s="15">
         <v>-1101</v>
       </c>
-      <c r="G20" s="15">
+      <c r="L20" s="15">
         <v>-2431</v>
       </c>
-      <c r="H20" s="15">
+      <c r="M20" s="15">
         <v>-813</v>
       </c>
     </row>
-    <row r="21" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B21" s="10" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="C21" s="11"/>
-      <c r="D21" s="11" t="s">
-        <v>18</v>
+      <c r="D21" s="11">
+        <v>0</v>
       </c>
       <c r="E21" s="11">
         <v>0</v>
@@ -1034,17 +1262,32 @@
       <c r="G21" s="11">
         <v>0</v>
       </c>
-      <c r="H21" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="H21" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="I21" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="J21" s="11">
+        <v>0</v>
+      </c>
+      <c r="K21" s="11">
+        <v>0</v>
+      </c>
+      <c r="L21" s="11">
+        <v>0</v>
+      </c>
+      <c r="M21" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B22" s="14" t="s">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="C22" s="15"/>
-      <c r="D22" s="15" t="s">
-        <v>18</v>
+      <c r="D22" s="15">
+        <v>0</v>
       </c>
       <c r="E22" s="15">
         <v>0</v>
@@ -1055,101 +1298,176 @@
       <c r="G22" s="15">
         <v>0</v>
       </c>
-      <c r="H22" s="15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="H22" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="I22" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="J22" s="15">
+        <v>0</v>
+      </c>
+      <c r="K22" s="15">
+        <v>0</v>
+      </c>
+      <c r="L22" s="15">
+        <v>0</v>
+      </c>
+      <c r="M22" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B23" s="10" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="C23" s="11"/>
-      <c r="D23" s="11" t="s">
-        <v>18</v>
+      <c r="D23" s="11">
+        <v>-86300</v>
       </c>
       <c r="E23" s="11">
-        <v>0</v>
+        <v>177000</v>
       </c>
       <c r="F23" s="11">
+        <v>0</v>
+      </c>
+      <c r="G23" s="11">
+        <v>274500</v>
+      </c>
+      <c r="H23" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="I23" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="J23" s="11">
+        <v>0</v>
+      </c>
+      <c r="K23" s="11">
         <v>48500</v>
       </c>
-      <c r="G23" s="11">
-        <v>0</v>
-      </c>
-      <c r="H23" s="11">
+      <c r="L23" s="11">
+        <v>0</v>
+      </c>
+      <c r="M23" s="11">
         <v>3600</v>
       </c>
     </row>
-    <row r="24" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B24" s="14" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="C24" s="15"/>
-      <c r="D24" s="15" t="s">
-        <v>18</v>
+      <c r="D24" s="15">
+        <v>84780</v>
       </c>
       <c r="E24" s="15">
-        <v>0</v>
+        <v>-441980</v>
       </c>
       <c r="F24" s="15">
+        <v>-138000</v>
+      </c>
+      <c r="G24" s="15">
+        <v>138000</v>
+      </c>
+      <c r="H24" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="I24" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="J24" s="15">
+        <v>0</v>
+      </c>
+      <c r="K24" s="15">
         <v>-20000</v>
       </c>
-      <c r="G24" s="15">
+      <c r="L24" s="15">
         <v>-700000</v>
       </c>
-      <c r="H24" s="15">
+      <c r="M24" s="15">
         <v>-557690</v>
       </c>
     </row>
-    <row r="25" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B25" s="10" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="C25" s="11"/>
-      <c r="D25" s="11" t="s">
-        <v>18</v>
+      <c r="D25" s="11">
+        <v>98603</v>
       </c>
       <c r="E25" s="11">
-        <v>0</v>
+        <v>60451</v>
       </c>
       <c r="F25" s="11">
-        <v>0</v>
+        <v>149419</v>
       </c>
       <c r="G25" s="11">
-        <v>0</v>
-      </c>
-      <c r="H25" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="2:8" x14ac:dyDescent="0.3">
+        <v>-82419</v>
+      </c>
+      <c r="H25" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="I25" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="J25" s="11">
+        <v>0</v>
+      </c>
+      <c r="K25" s="11">
+        <v>0</v>
+      </c>
+      <c r="L25" s="11">
+        <v>0</v>
+      </c>
+      <c r="M25" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B26" s="14" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="C26" s="15"/>
-      <c r="D26" s="15" t="s">
-        <v>18</v>
+      <c r="D26" s="15">
+        <v>7697</v>
       </c>
       <c r="E26" s="15">
         <v>0</v>
       </c>
       <c r="F26" s="15">
+        <v>0</v>
+      </c>
+      <c r="G26" s="15">
+        <v>0</v>
+      </c>
+      <c r="H26" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="I26" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="J26" s="15">
+        <v>0</v>
+      </c>
+      <c r="K26" s="15">
         <v>-1883</v>
       </c>
-      <c r="G26" s="15">
-        <v>0</v>
-      </c>
-      <c r="H26" s="15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="L26" s="15">
+        <v>0</v>
+      </c>
+      <c r="M26" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B27" s="10" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="C27" s="11"/>
-      <c r="D27" s="11" t="s">
-        <v>18</v>
+      <c r="D27" s="11">
+        <v>0</v>
       </c>
       <c r="E27" s="11">
         <v>0</v>
@@ -1160,17 +1478,32 @@
       <c r="G27" s="11">
         <v>0</v>
       </c>
-      <c r="H27" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="H27" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="I27" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="J27" s="11">
+        <v>0</v>
+      </c>
+      <c r="K27" s="11">
+        <v>0</v>
+      </c>
+      <c r="L27" s="11">
+        <v>0</v>
+      </c>
+      <c r="M27" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B28" s="14" t="s">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="C28" s="15"/>
-      <c r="D28" s="15" t="s">
-        <v>18</v>
+      <c r="D28" s="15">
+        <v>0</v>
       </c>
       <c r="E28" s="15">
         <v>0</v>
@@ -1181,17 +1514,32 @@
       <c r="G28" s="15">
         <v>0</v>
       </c>
-      <c r="H28" s="15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="H28" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="I28" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="J28" s="15">
+        <v>0</v>
+      </c>
+      <c r="K28" s="15">
+        <v>0</v>
+      </c>
+      <c r="L28" s="15">
+        <v>0</v>
+      </c>
+      <c r="M28" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B29" s="10" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="C29" s="11"/>
-      <c r="D29" s="11" t="s">
-        <v>18</v>
+      <c r="D29" s="11">
+        <v>0</v>
       </c>
       <c r="E29" s="11">
         <v>0</v>
@@ -1202,20 +1550,35 @@
       <c r="G29" s="11">
         <v>0</v>
       </c>
-      <c r="H29" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="H29" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="I29" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="J29" s="11">
+        <v>0</v>
+      </c>
+      <c r="K29" s="11">
+        <v>0</v>
+      </c>
+      <c r="L29" s="11">
+        <v>0</v>
+      </c>
+      <c r="M29" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B30" s="14" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="C30" s="15"/>
-      <c r="D30" s="15" t="s">
-        <v>18</v>
+      <c r="D30" s="15">
+        <v>-76</v>
       </c>
       <c r="E30" s="15">
-        <v>0</v>
+        <v>58</v>
       </c>
       <c r="F30" s="15">
         <v>0</v>
@@ -1223,76 +1586,136 @@
       <c r="G30" s="15">
         <v>0</v>
       </c>
-      <c r="H30" s="15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="H30" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="I30" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="J30" s="15">
+        <v>0</v>
+      </c>
+      <c r="K30" s="15">
+        <v>0</v>
+      </c>
+      <c r="L30" s="15">
+        <v>0</v>
+      </c>
+      <c r="M30" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B31" s="10" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="C31" s="11"/>
-      <c r="D31" s="11" t="s">
-        <v>18</v>
+      <c r="D31" s="11">
+        <v>21742</v>
       </c>
       <c r="E31" s="11">
+        <v>-1606</v>
+      </c>
+      <c r="F31" s="11">
+        <v>25217</v>
+      </c>
+      <c r="G31" s="11">
+        <v>10034</v>
+      </c>
+      <c r="H31" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="I31" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="J31" s="11">
         <v>7954</v>
       </c>
-      <c r="F31" s="11">
+      <c r="K31" s="11">
         <v>6135</v>
       </c>
-      <c r="G31" s="11">
+      <c r="L31" s="11">
         <v>13542</v>
       </c>
-      <c r="H31" s="11">
+      <c r="M31" s="11">
         <v>67496</v>
       </c>
     </row>
-    <row r="32" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B32" s="16" t="s">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="C32" s="17"/>
-      <c r="D32" s="17" t="s">
-        <v>18</v>
+      <c r="D32" s="17">
+        <v>63814</v>
       </c>
       <c r="E32" s="17">
+        <v>-292142</v>
+      </c>
+      <c r="F32" s="17">
+        <v>24498</v>
+      </c>
+      <c r="G32" s="17">
+        <v>66966</v>
+      </c>
+      <c r="H32" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="I32" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="J32" s="17">
         <v>-112268</v>
       </c>
-      <c r="F32" s="17">
+      <c r="K32" s="17">
         <v>-113397</v>
       </c>
-      <c r="G32" s="17">
+      <c r="L32" s="17">
         <v>-759532</v>
       </c>
-      <c r="H32" s="17">
+      <c r="M32" s="17">
         <v>-918431</v>
       </c>
     </row>
-    <row r="33" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B33" s="18" t="s">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="C33" s="19"/>
-      <c r="D33" s="19" t="s">
-        <v>18</v>
+      <c r="D33" s="19">
+        <v>334050</v>
       </c>
       <c r="E33" s="19">
+        <v>-110190</v>
+      </c>
+      <c r="F33" s="19">
+        <v>429444</v>
+      </c>
+      <c r="G33" s="19">
+        <v>226783</v>
+      </c>
+      <c r="H33" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="I33" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="J33" s="19">
         <v>894894</v>
       </c>
-      <c r="F33" s="19">
+      <c r="K33" s="19">
         <v>1299299</v>
       </c>
-      <c r="G33" s="19">
+      <c r="L33" s="19">
         <v>39062</v>
       </c>
-      <c r="H33" s="19">
+      <c r="M33" s="19">
         <v>636526</v>
       </c>
     </row>
-    <row r="34" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B34" s="12" t="s">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="C34" s="13"/>
       <c r="D34" s="13"/>
@@ -1300,14 +1723,19 @@
       <c r="F34" s="13"/>
       <c r="G34" s="13"/>
       <c r="H34" s="13"/>
-    </row>
-    <row r="35" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="I34" s="13"/>
+      <c r="J34" s="13"/>
+      <c r="K34" s="13"/>
+      <c r="L34" s="13"/>
+      <c r="M34" s="13"/>
+    </row>
+    <row r="35" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B35" s="14" t="s">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="C35" s="15"/>
-      <c r="D35" s="15" t="s">
-        <v>18</v>
+      <c r="D35" s="15">
+        <v>0</v>
       </c>
       <c r="E35" s="15">
         <v>0</v>
@@ -1318,143 +1746,248 @@
       <c r="G35" s="15">
         <v>0</v>
       </c>
-      <c r="H35" s="15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="H35" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="I35" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="J35" s="15">
+        <v>0</v>
+      </c>
+      <c r="K35" s="15">
+        <v>0</v>
+      </c>
+      <c r="L35" s="15">
+        <v>0</v>
+      </c>
+      <c r="M35" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B36" s="10" t="s">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="C36" s="11"/>
       <c r="D36" s="11" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="E36" s="11" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="F36" s="11" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="G36" s="11" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="H36" s="11" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="37" spans="2:8" x14ac:dyDescent="0.3">
+        <v>27</v>
+      </c>
+      <c r="I36" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="J36" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="K36" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="L36" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="M36" s="11" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="37" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B37" s="14" t="s">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="C37" s="15"/>
-      <c r="D37" s="15" t="s">
-        <v>18</v>
+      <c r="D37" s="15">
+        <v>0</v>
       </c>
       <c r="E37" s="15">
         <v>0</v>
       </c>
       <c r="F37" s="15">
+        <v>0</v>
+      </c>
+      <c r="G37" s="15">
+        <v>0</v>
+      </c>
+      <c r="H37" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="I37" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="J37" s="15">
+        <v>0</v>
+      </c>
+      <c r="K37" s="15">
         <v>866793</v>
       </c>
-      <c r="G37" s="15">
-        <v>0</v>
-      </c>
-      <c r="H37" s="15">
+      <c r="L37" s="15">
+        <v>0</v>
+      </c>
+      <c r="M37" s="15">
         <v>2931</v>
       </c>
     </row>
-    <row r="38" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B38" s="10" t="s">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="C38" s="11"/>
-      <c r="D38" s="11" t="s">
-        <v>18</v>
+      <c r="D38" s="11">
+        <v>0</v>
       </c>
       <c r="E38" s="11">
-        <v>0</v>
+        <v>-119999</v>
       </c>
       <c r="F38" s="11">
+        <v>0</v>
+      </c>
+      <c r="G38" s="11">
+        <v>-196345</v>
+      </c>
+      <c r="H38" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="I38" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="J38" s="11">
+        <v>0</v>
+      </c>
+      <c r="K38" s="11">
         <v>-979504</v>
       </c>
-      <c r="G38" s="11">
-        <v>0</v>
-      </c>
-      <c r="H38" s="11">
+      <c r="L38" s="11">
+        <v>0</v>
+      </c>
+      <c r="M38" s="11">
         <v>-57207</v>
       </c>
     </row>
-    <row r="39" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B39" s="14" t="s">
-        <v>45</v>
+        <v>54</v>
       </c>
       <c r="C39" s="15"/>
-      <c r="D39" s="15" t="s">
-        <v>18</v>
+      <c r="D39" s="15">
+        <v>201287</v>
       </c>
       <c r="E39" s="15">
-        <v>0</v>
+        <v>77500</v>
       </c>
       <c r="F39" s="15">
         <v>0</v>
       </c>
       <c r="G39" s="15">
-        <v>0</v>
-      </c>
-      <c r="H39" s="15">
+        <v>175000</v>
+      </c>
+      <c r="H39" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="I39" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="J39" s="15">
+        <v>0</v>
+      </c>
+      <c r="K39" s="15">
+        <v>0</v>
+      </c>
+      <c r="L39" s="15">
+        <v>0</v>
+      </c>
+      <c r="M39" s="15">
         <v>59895</v>
       </c>
     </row>
-    <row r="40" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B40" s="10" t="s">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="C40" s="11"/>
-      <c r="D40" s="11" t="s">
-        <v>18</v>
+      <c r="D40" s="11">
+        <v>-68048</v>
       </c>
       <c r="E40" s="11">
+        <v>38379</v>
+      </c>
+      <c r="F40" s="11">
+        <v>-97371</v>
+      </c>
+      <c r="G40" s="11">
+        <v>-161337</v>
+      </c>
+      <c r="H40" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="I40" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="J40" s="11">
         <v>-151391</v>
       </c>
-      <c r="F40" s="11">
+      <c r="K40" s="11">
         <v>-143405</v>
       </c>
-      <c r="G40" s="11">
+      <c r="L40" s="11">
         <v>-1869</v>
       </c>
-      <c r="H40" s="11">
+      <c r="M40" s="11">
         <v>-60781</v>
       </c>
     </row>
-    <row r="41" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B41" s="14" t="s">
-        <v>47</v>
+        <v>56</v>
       </c>
       <c r="C41" s="15"/>
-      <c r="D41" s="15" t="s">
-        <v>18</v>
+      <c r="D41" s="15">
+        <v>-21435</v>
       </c>
       <c r="E41" s="15">
+        <v>25093</v>
+      </c>
+      <c r="F41" s="15">
+        <v>-14780</v>
+      </c>
+      <c r="G41" s="15">
+        <v>-24818</v>
+      </c>
+      <c r="H41" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="I41" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="J41" s="15">
         <v>-13975</v>
       </c>
-      <c r="F41" s="15">
+      <c r="K41" s="15">
         <v>947</v>
       </c>
-      <c r="G41" s="15">
-        <v>0</v>
-      </c>
-      <c r="H41" s="15">
+      <c r="L41" s="15">
+        <v>0</v>
+      </c>
+      <c r="M41" s="15">
         <v>-12379</v>
       </c>
     </row>
-    <row r="42" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B42" s="10" t="s">
-        <v>48</v>
+        <v>57</v>
       </c>
       <c r="C42" s="11"/>
-      <c r="D42" s="11" t="s">
-        <v>18</v>
+      <c r="D42" s="11">
+        <v>0</v>
       </c>
       <c r="E42" s="11">
         <v>0</v>
@@ -1465,17 +1998,32 @@
       <c r="G42" s="11">
         <v>0</v>
       </c>
-      <c r="H42" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="H42" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="I42" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="J42" s="11">
+        <v>0</v>
+      </c>
+      <c r="K42" s="11">
+        <v>0</v>
+      </c>
+      <c r="L42" s="11">
+        <v>0</v>
+      </c>
+      <c r="M42" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B43" s="14" t="s">
-        <v>49</v>
+        <v>58</v>
       </c>
       <c r="C43" s="15"/>
-      <c r="D43" s="15" t="s">
-        <v>18</v>
+      <c r="D43" s="15">
+        <v>0</v>
       </c>
       <c r="E43" s="15">
         <v>0</v>
@@ -1486,17 +2034,32 @@
       <c r="G43" s="15">
         <v>0</v>
       </c>
-      <c r="H43" s="15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="H43" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="I43" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="J43" s="15">
+        <v>0</v>
+      </c>
+      <c r="K43" s="15">
+        <v>0</v>
+      </c>
+      <c r="L43" s="15">
+        <v>0</v>
+      </c>
+      <c r="M43" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B44" s="10" t="s">
-        <v>50</v>
+        <v>59</v>
       </c>
       <c r="C44" s="11"/>
-      <c r="D44" s="11" t="s">
-        <v>18</v>
+      <c r="D44" s="11">
+        <v>0</v>
       </c>
       <c r="E44" s="11">
         <v>0</v>
@@ -1507,17 +2070,32 @@
       <c r="G44" s="11">
         <v>0</v>
       </c>
-      <c r="H44" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="H44" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="I44" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="J44" s="11">
+        <v>0</v>
+      </c>
+      <c r="K44" s="11">
+        <v>0</v>
+      </c>
+      <c r="L44" s="11">
+        <v>0</v>
+      </c>
+      <c r="M44" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B45" s="14" t="s">
-        <v>51</v>
+        <v>60</v>
       </c>
       <c r="C45" s="15"/>
-      <c r="D45" s="15" t="s">
-        <v>18</v>
+      <c r="D45" s="15">
+        <v>0</v>
       </c>
       <c r="E45" s="15">
         <v>0</v>
@@ -1528,17 +2106,32 @@
       <c r="G45" s="15">
         <v>0</v>
       </c>
-      <c r="H45" s="15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="H45" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="I45" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="J45" s="15">
+        <v>0</v>
+      </c>
+      <c r="K45" s="15">
+        <v>0</v>
+      </c>
+      <c r="L45" s="15">
+        <v>0</v>
+      </c>
+      <c r="M45" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B46" s="10" t="s">
-        <v>52</v>
+        <v>61</v>
       </c>
       <c r="C46" s="11"/>
-      <c r="D46" s="11" t="s">
-        <v>18</v>
+      <c r="D46" s="11">
+        <v>0</v>
       </c>
       <c r="E46" s="11">
         <v>0</v>
@@ -1549,17 +2142,32 @@
       <c r="G46" s="11">
         <v>0</v>
       </c>
-      <c r="H46" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="H46" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="I46" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="J46" s="11">
+        <v>0</v>
+      </c>
+      <c r="K46" s="11">
+        <v>0</v>
+      </c>
+      <c r="L46" s="11">
+        <v>0</v>
+      </c>
+      <c r="M46" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B47" s="14" t="s">
-        <v>53</v>
+        <v>62</v>
       </c>
       <c r="C47" s="15"/>
-      <c r="D47" s="15" t="s">
-        <v>18</v>
+      <c r="D47" s="15">
+        <v>0</v>
       </c>
       <c r="E47" s="15">
         <v>0</v>
@@ -1570,17 +2178,32 @@
       <c r="G47" s="15">
         <v>0</v>
       </c>
-      <c r="H47" s="15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="H47" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="I47" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="J47" s="15">
+        <v>0</v>
+      </c>
+      <c r="K47" s="15">
+        <v>0</v>
+      </c>
+      <c r="L47" s="15">
+        <v>0</v>
+      </c>
+      <c r="M47" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B48" s="10" t="s">
-        <v>54</v>
+        <v>63</v>
       </c>
       <c r="C48" s="11"/>
-      <c r="D48" s="11" t="s">
-        <v>18</v>
+      <c r="D48" s="11">
+        <v>0</v>
       </c>
       <c r="E48" s="11">
         <v>0</v>
@@ -1591,17 +2214,32 @@
       <c r="G48" s="11">
         <v>0</v>
       </c>
-      <c r="H48" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="H48" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="I48" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="J48" s="11">
+        <v>0</v>
+      </c>
+      <c r="K48" s="11">
+        <v>0</v>
+      </c>
+      <c r="L48" s="11">
+        <v>0</v>
+      </c>
+      <c r="M48" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B49" s="14" t="s">
-        <v>55</v>
+        <v>64</v>
       </c>
       <c r="C49" s="15"/>
-      <c r="D49" s="15" t="s">
-        <v>18</v>
+      <c r="D49" s="15">
+        <v>0</v>
       </c>
       <c r="E49" s="15">
         <v>0</v>
@@ -1612,143 +2250,248 @@
       <c r="G49" s="15">
         <v>0</v>
       </c>
-      <c r="H49" s="15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="H49" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="I49" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="J49" s="15">
+        <v>0</v>
+      </c>
+      <c r="K49" s="15">
+        <v>0</v>
+      </c>
+      <c r="L49" s="15">
+        <v>0</v>
+      </c>
+      <c r="M49" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B50" s="10" t="s">
-        <v>56</v>
+        <v>65</v>
       </c>
       <c r="C50" s="11"/>
-      <c r="D50" s="11" t="s">
-        <v>18</v>
+      <c r="D50" s="11">
+        <v>-412645</v>
       </c>
       <c r="E50" s="11">
+        <v>-33916</v>
+      </c>
+      <c r="F50" s="11">
+        <v>-32</v>
+      </c>
+      <c r="G50" s="11">
+        <v>-542293</v>
+      </c>
+      <c r="H50" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="I50" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="J50" s="11">
         <v>-471763</v>
       </c>
-      <c r="F50" s="11">
+      <c r="K50" s="11">
         <v>-422601</v>
       </c>
-      <c r="G50" s="11">
+      <c r="L50" s="11">
         <v>-241005</v>
       </c>
-      <c r="H50" s="11">
+      <c r="M50" s="11">
         <v>-4553</v>
       </c>
     </row>
-    <row r="51" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="51" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B51" s="16" t="s">
-        <v>57</v>
+        <v>66</v>
       </c>
       <c r="C51" s="17"/>
-      <c r="D51" s="17" t="s">
-        <v>18</v>
+      <c r="D51" s="17">
+        <v>-300841</v>
       </c>
       <c r="E51" s="17">
+        <v>-12943</v>
+      </c>
+      <c r="F51" s="17">
+        <v>-112183</v>
+      </c>
+      <c r="G51" s="17">
+        <v>-749793</v>
+      </c>
+      <c r="H51" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="I51" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="J51" s="17">
         <v>-637129</v>
       </c>
-      <c r="F51" s="17">
+      <c r="K51" s="17">
         <v>-677770</v>
       </c>
-      <c r="G51" s="17">
+      <c r="L51" s="17">
         <v>-242874</v>
       </c>
-      <c r="H51" s="17">
+      <c r="M51" s="17">
         <v>-72094</v>
       </c>
     </row>
-    <row r="52" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="52" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B52" s="18" t="s">
-        <v>58</v>
+        <v>67</v>
       </c>
       <c r="C52" s="19"/>
-      <c r="D52" s="19" t="s">
-        <v>18</v>
+      <c r="D52" s="19">
+        <v>33209</v>
       </c>
       <c r="E52" s="19">
+        <v>-123133</v>
+      </c>
+      <c r="F52" s="19">
+        <v>317261</v>
+      </c>
+      <c r="G52" s="19">
+        <v>-523010</v>
+      </c>
+      <c r="H52" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="I52" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="J52" s="19">
         <v>257765</v>
       </c>
-      <c r="F52" s="19">
+      <c r="K52" s="19">
         <v>621529</v>
       </c>
-      <c r="G52" s="19">
+      <c r="L52" s="19">
         <v>-203812</v>
       </c>
-      <c r="H52" s="19">
+      <c r="M52" s="19">
         <v>564432</v>
       </c>
     </row>
-    <row r="53" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="53" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B53" s="14" t="s">
-        <v>59</v>
+        <v>68</v>
       </c>
       <c r="C53" s="15"/>
-      <c r="D53" s="15" t="s">
-        <v>18</v>
+      <c r="D53" s="15">
+        <v>494139</v>
       </c>
       <c r="E53" s="15">
+        <v>527334</v>
+      </c>
+      <c r="F53" s="15">
+        <v>527797</v>
+      </c>
+      <c r="G53" s="15">
+        <v>845058</v>
+      </c>
+      <c r="H53" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="I53" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="J53" s="15">
         <v>707883</v>
       </c>
-      <c r="F53" s="15">
+      <c r="K53" s="15">
         <v>965648</v>
       </c>
-      <c r="G53" s="15">
+      <c r="L53" s="15">
         <v>1598224</v>
       </c>
-      <c r="H53" s="15">
+      <c r="M53" s="15">
         <v>1383789</v>
       </c>
     </row>
-    <row r="54" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="54" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B54" s="10" t="s">
-        <v>60</v>
+        <v>69</v>
       </c>
       <c r="C54" s="11"/>
-      <c r="D54" s="11" t="s">
-        <v>18</v>
+      <c r="D54" s="11">
+        <v>-14</v>
       </c>
       <c r="E54" s="11">
-        <v>0</v>
+        <v>3488</v>
       </c>
       <c r="F54" s="11">
+        <v>0</v>
+      </c>
+      <c r="G54" s="11">
+        <v>1847</v>
+      </c>
+      <c r="H54" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="I54" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="J54" s="11">
+        <v>0</v>
+      </c>
+      <c r="K54" s="11">
         <v>11047</v>
       </c>
-      <c r="G54" s="11">
+      <c r="L54" s="11">
         <v>-10622</v>
       </c>
-      <c r="H54" s="11">
+      <c r="M54" s="11">
         <v>-425</v>
       </c>
     </row>
-    <row r="55" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="55" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B55" s="16" t="s">
-        <v>61</v>
+        <v>70</v>
       </c>
       <c r="C55" s="17"/>
-      <c r="D55" s="17" t="s">
-        <v>18</v>
+      <c r="D55" s="17">
+        <v>527334</v>
       </c>
       <c r="E55" s="17">
+        <v>697438</v>
+      </c>
+      <c r="F55" s="17">
+        <v>845058</v>
+      </c>
+      <c r="G55" s="17">
+        <v>493536</v>
+      </c>
+      <c r="H55" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="I55" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="J55" s="17">
         <v>965648</v>
       </c>
-      <c r="F55" s="17">
+      <c r="K55" s="17">
         <v>1598224</v>
       </c>
-      <c r="G55" s="17">
+      <c r="L55" s="17">
         <v>1383789</v>
       </c>
-      <c r="H55" s="17">
+      <c r="M55" s="17">
         <v>1947797</v>
       </c>
     </row>
-    <row r="56" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="56" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B56" s="10" t="s">
-        <v>62</v>
+        <v>71</v>
       </c>
       <c r="C56" s="11"/>
-      <c r="D56" s="11" t="s">
-        <v>18</v>
+      <c r="D56" s="11">
+        <v>0</v>
       </c>
       <c r="E56" s="11">
         <v>0</v>
@@ -1759,11 +2502,26 @@
       <c r="G56" s="11">
         <v>0</v>
       </c>
-      <c r="H56" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="57" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="H56" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="I56" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="J56" s="11">
+        <v>0</v>
+      </c>
+      <c r="K56" s="11">
+        <v>0</v>
+      </c>
+      <c r="L56" s="11">
+        <v>0</v>
+      </c>
+      <c r="M56" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B57" s="1"/>
       <c r="C57" s="1"/>
       <c r="D57" s="1"/>
@@ -1771,6 +2529,11 @@
       <c r="F57" s="1"/>
       <c r="G57" s="1"/>
       <c r="H57" s="1"/>
+      <c r="I57" s="1"/>
+      <c r="J57" s="1"/>
+      <c r="K57" s="1"/>
+      <c r="L57" s="1"/>
+      <c r="M57" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/database/industries/methanol/shekolor/cashflow/quarterly.xlsx
+++ b/database/industries/methanol/shekolor/cashflow/quarterly.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="c:\Users\EBRAHIMI\Desktop\Trade\database\industries\methanol\shekolor\cashflow\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EBRAHIMI\Desktop\Trade\database\industries\methanol\shekolor\cashflow\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E72386E8-1C8B-48A1-BDDD-337B52EB3667}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{293BFC95-39BB-414D-82C7-DF7059A9813D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11025" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1152" yWindow="1152" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="72">
   <si>
     <t>Pouya Finance</t>
   </si>
@@ -37,9 +37,6 @@
     <t>دوره مالی</t>
   </si>
   <si>
-    <t>فصل سوم منتهی به 1399/02</t>
-  </si>
-  <si>
     <t>فصل چهارم منتهی به 1399/12</t>
   </si>
   <si>
@@ -67,12 +64,12 @@
     <t>فصل چهارم منتهی به 1401/08</t>
   </si>
   <si>
+    <t>فصل اول منتهی به 1401/11</t>
+  </si>
+  <si>
     <t>تاریخ انتشار</t>
   </si>
   <si>
-    <t>1399-03-30</t>
-  </si>
-  <si>
     <t>1400-10-08 (15)</t>
   </si>
   <si>
@@ -94,7 +91,10 @@
     <t>1401-06-30</t>
   </si>
   <si>
-    <t>1401-10-28 (3)</t>
+    <t>1401-12-29 (4)</t>
+  </si>
+  <si>
+    <t>1401-12-29</t>
   </si>
   <si>
     <t>فعالیتهای عملیاتی</t>
@@ -723,19 +723,19 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="74" customWidth="1"/>
     <col min="3" max="3" width="5" customWidth="1"/>
-    <col min="4" max="4" width="29" customWidth="1"/>
-    <col min="5" max="5" width="31" customWidth="1"/>
-    <col min="6" max="8" width="29" customWidth="1"/>
-    <col min="9" max="9" width="31" customWidth="1"/>
-    <col min="10" max="12" width="29" customWidth="1"/>
-    <col min="13" max="13" width="31" customWidth="1"/>
+    <col min="4" max="4" width="31" customWidth="1"/>
+    <col min="5" max="7" width="29" customWidth="1"/>
+    <col min="8" max="8" width="31" customWidth="1"/>
+    <col min="9" max="11" width="29" customWidth="1"/>
+    <col min="12" max="12" width="31" customWidth="1"/>
+    <col min="13" max="13" width="29" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -749,7 +749,7 @@
       <c r="L1" s="1"/>
       <c r="M1" s="1"/>
     </row>
-    <row r="2" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -765,7 +765,7 @@
       <c r="L2" s="1"/>
       <c r="M2" s="1"/>
     </row>
-    <row r="3" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
@@ -781,7 +781,7 @@
       <c r="L3" s="1"/>
       <c r="M3" s="1"/>
     </row>
-    <row r="4" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -795,7 +795,7 @@
       <c r="L4" s="1"/>
       <c r="M4" s="1"/>
     </row>
-    <row r="5" spans="2:13" ht="42" x14ac:dyDescent="0.65">
+    <row r="5" spans="2:13" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B5" s="4" t="s">
         <v>2</v>
       </c>
@@ -811,7 +811,7 @@
       <c r="L5" s="4"/>
       <c r="M5" s="4"/>
     </row>
-    <row r="6" spans="2:13" ht="42" x14ac:dyDescent="0.65">
+    <row r="6" spans="2:13" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B6" s="5" t="s">
         <v>3</v>
       </c>
@@ -827,7 +827,7 @@
       <c r="L6" s="4"/>
       <c r="M6" s="4"/>
     </row>
-    <row r="7" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -841,7 +841,7 @@
       <c r="L7" s="1"/>
       <c r="M7" s="1"/>
     </row>
-    <row r="8" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B8" s="7" t="s">
         <v>4</v>
       </c>
@@ -877,7 +877,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B9" s="8" t="s">
         <v>15</v>
       </c>
@@ -891,10 +891,10 @@
       <c r="F9" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="G9" s="9" t="s">
+      <c r="G9" s="9"/>
+      <c r="H9" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="H9" s="9"/>
       <c r="I9" s="9" t="s">
         <v>20</v>
       </c>
@@ -911,7 +911,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="10" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B10" s="10"/>
       <c r="C10" s="11"/>
       <c r="D10" s="11"/>
@@ -925,7 +925,7 @@
       <c r="L10" s="11"/>
       <c r="M10" s="11"/>
     </row>
-    <row r="11" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B11" s="12" t="s">
         <v>25</v>
       </c>
@@ -941,115 +941,115 @@
       <c r="L11" s="13"/>
       <c r="M11" s="13"/>
     </row>
-    <row r="12" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B12" s="14" t="s">
         <v>26</v>
       </c>
       <c r="C12" s="15"/>
       <c r="D12" s="15">
-        <v>322133</v>
+        <v>123623</v>
       </c>
       <c r="E12" s="15">
-        <v>123623</v>
+        <v>404946</v>
       </c>
       <c r="F12" s="15">
-        <v>404946</v>
-      </c>
-      <c r="G12" s="15">
         <v>249630</v>
       </c>
+      <c r="G12" s="15" t="s">
+        <v>27</v>
+      </c>
       <c r="H12" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="I12" s="15" t="s">
-        <v>27</v>
+      <c r="I12" s="15">
+        <v>1023949</v>
       </c>
       <c r="J12" s="15">
-        <v>1023949</v>
+        <v>1455572</v>
       </c>
       <c r="K12" s="15">
-        <v>1455572</v>
+        <v>836581</v>
       </c>
       <c r="L12" s="15">
-        <v>836581</v>
+        <v>1614240</v>
       </c>
       <c r="M12" s="15">
-        <v>1614240</v>
-      </c>
-    </row>
-    <row r="13" spans="2:13" x14ac:dyDescent="0.25">
+        <v>1083005</v>
+      </c>
+    </row>
+    <row r="13" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B13" s="10" t="s">
         <v>28</v>
       </c>
       <c r="C13" s="11"/>
       <c r="D13" s="11">
-        <v>-51897</v>
+        <v>58329</v>
       </c>
       <c r="E13" s="11">
-        <v>58329</v>
+        <v>0</v>
       </c>
       <c r="F13" s="11">
-        <v>0</v>
-      </c>
-      <c r="G13" s="11">
         <v>-89813</v>
       </c>
+      <c r="G13" s="11" t="s">
+        <v>27</v>
+      </c>
       <c r="H13" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="I13" s="11" t="s">
-        <v>27</v>
+      <c r="I13" s="11">
+        <v>-16787</v>
       </c>
       <c r="J13" s="11">
-        <v>-16787</v>
+        <v>-42876</v>
       </c>
       <c r="K13" s="11">
-        <v>-42876</v>
+        <v>-37987</v>
       </c>
       <c r="L13" s="11">
-        <v>-37987</v>
+        <v>-59283</v>
       </c>
       <c r="M13" s="11">
-        <v>-59283</v>
-      </c>
-    </row>
-    <row r="14" spans="2:13" x14ac:dyDescent="0.25">
+        <v>-7335</v>
+      </c>
+    </row>
+    <row r="14" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B14" s="16" t="s">
         <v>29</v>
       </c>
       <c r="C14" s="17"/>
       <c r="D14" s="17">
-        <v>270236</v>
+        <v>181952</v>
       </c>
       <c r="E14" s="17">
-        <v>181952</v>
+        <v>404946</v>
       </c>
       <c r="F14" s="17">
-        <v>404946</v>
-      </c>
-      <c r="G14" s="17">
         <v>159817</v>
       </c>
+      <c r="G14" s="17" t="s">
+        <v>27</v>
+      </c>
       <c r="H14" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="I14" s="17" t="s">
-        <v>27</v>
+      <c r="I14" s="17">
+        <v>1007162</v>
       </c>
       <c r="J14" s="17">
-        <v>1007162</v>
+        <v>1412696</v>
       </c>
       <c r="K14" s="17">
-        <v>1412696</v>
+        <v>798594</v>
       </c>
       <c r="L14" s="17">
-        <v>798594</v>
+        <v>1554957</v>
       </c>
       <c r="M14" s="17">
-        <v>1554957</v>
-      </c>
-    </row>
-    <row r="15" spans="2:13" x14ac:dyDescent="0.25">
+        <v>1075670</v>
+      </c>
+    </row>
+    <row r="15" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B15" s="12" t="s">
         <v>30</v>
       </c>
@@ -1065,7 +1065,7 @@
       <c r="L15" s="13"/>
       <c r="M15" s="13"/>
     </row>
-    <row r="16" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B16" s="14" t="s">
         <v>31</v>
       </c>
@@ -1077,16 +1077,16 @@
         <v>0</v>
       </c>
       <c r="F16" s="15">
-        <v>0</v>
-      </c>
-      <c r="G16" s="15">
         <v>2013</v>
       </c>
+      <c r="G16" s="15" t="s">
+        <v>27</v>
+      </c>
       <c r="H16" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="I16" s="15" t="s">
-        <v>27</v>
+      <c r="I16" s="15">
+        <v>0</v>
       </c>
       <c r="J16" s="15">
         <v>0</v>
@@ -1101,43 +1101,43 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B17" s="10" t="s">
         <v>32</v>
       </c>
       <c r="C17" s="11"/>
       <c r="D17" s="11">
-        <v>-62632</v>
+        <v>-53237</v>
       </c>
       <c r="E17" s="11">
-        <v>-53237</v>
+        <v>-12138</v>
       </c>
       <c r="F17" s="11">
-        <v>-12138</v>
-      </c>
-      <c r="G17" s="11">
         <v>-274745</v>
       </c>
+      <c r="G17" s="11" t="s">
+        <v>27</v>
+      </c>
       <c r="H17" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="I17" s="11" t="s">
-        <v>27</v>
+      <c r="I17" s="11">
+        <v>-119015</v>
       </c>
       <c r="J17" s="11">
-        <v>-119015</v>
+        <v>-145048</v>
       </c>
       <c r="K17" s="11">
-        <v>-145048</v>
+        <v>-70643</v>
       </c>
       <c r="L17" s="11">
-        <v>-70643</v>
+        <v>-431024</v>
       </c>
       <c r="M17" s="11">
-        <v>-431024</v>
-      </c>
-    </row>
-    <row r="18" spans="2:13" x14ac:dyDescent="0.25">
+        <v>-419091</v>
+      </c>
+    </row>
+    <row r="18" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B18" s="14" t="s">
         <v>33</v>
       </c>
@@ -1151,14 +1151,14 @@
       <c r="F18" s="15">
         <v>0</v>
       </c>
-      <c r="G18" s="15">
-        <v>0</v>
+      <c r="G18" s="15" t="s">
+        <v>27</v>
       </c>
       <c r="H18" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="I18" s="15" t="s">
-        <v>27</v>
+      <c r="I18" s="15">
+        <v>0</v>
       </c>
       <c r="J18" s="15">
         <v>0</v>
@@ -1173,7 +1173,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B19" s="10" t="s">
         <v>34</v>
       </c>
@@ -1187,14 +1187,14 @@
       <c r="F19" s="11">
         <v>0</v>
       </c>
-      <c r="G19" s="11">
-        <v>0</v>
+      <c r="G19" s="11" t="s">
+        <v>27</v>
       </c>
       <c r="H19" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="I19" s="11" t="s">
-        <v>27</v>
+      <c r="I19" s="11">
+        <v>0</v>
       </c>
       <c r="J19" s="11">
         <v>0</v>
@@ -1209,43 +1209,43 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B20" s="14" t="s">
         <v>35</v>
       </c>
       <c r="C20" s="15"/>
       <c r="D20" s="15">
-        <v>0</v>
+        <v>-32828</v>
       </c>
       <c r="E20" s="15">
-        <v>-32828</v>
+        <v>0</v>
       </c>
       <c r="F20" s="15">
-        <v>0</v>
-      </c>
-      <c r="G20" s="15">
         <v>-417</v>
       </c>
+      <c r="G20" s="15" t="s">
+        <v>27</v>
+      </c>
       <c r="H20" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="I20" s="15" t="s">
-        <v>27</v>
+      <c r="I20" s="15">
+        <v>-1207</v>
       </c>
       <c r="J20" s="15">
-        <v>-1207</v>
+        <v>-1101</v>
       </c>
       <c r="K20" s="15">
-        <v>-1101</v>
+        <v>-2431</v>
       </c>
       <c r="L20" s="15">
-        <v>-2431</v>
+        <v>-813</v>
       </c>
       <c r="M20" s="15">
-        <v>-813</v>
-      </c>
-    </row>
-    <row r="21" spans="2:13" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B21" s="10" t="s">
         <v>36</v>
       </c>
@@ -1259,14 +1259,14 @@
       <c r="F21" s="11">
         <v>0</v>
       </c>
-      <c r="G21" s="11">
-        <v>0</v>
+      <c r="G21" s="11" t="s">
+        <v>27</v>
       </c>
       <c r="H21" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="I21" s="11" t="s">
-        <v>27</v>
+      <c r="I21" s="11">
+        <v>0</v>
       </c>
       <c r="J21" s="11">
         <v>0</v>
@@ -1281,7 +1281,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B22" s="14" t="s">
         <v>37</v>
       </c>
@@ -1295,14 +1295,14 @@
       <c r="F22" s="15">
         <v>0</v>
       </c>
-      <c r="G22" s="15">
-        <v>0</v>
+      <c r="G22" s="15" t="s">
+        <v>27</v>
       </c>
       <c r="H22" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="I22" s="15" t="s">
-        <v>27</v>
+      <c r="I22" s="15">
+        <v>0</v>
       </c>
       <c r="J22" s="15">
         <v>0</v>
@@ -1317,100 +1317,100 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B23" s="10" t="s">
         <v>38</v>
       </c>
       <c r="C23" s="11"/>
       <c r="D23" s="11">
-        <v>-86300</v>
+        <v>177000</v>
       </c>
       <c r="E23" s="11">
-        <v>177000</v>
+        <v>0</v>
       </c>
       <c r="F23" s="11">
-        <v>0</v>
-      </c>
-      <c r="G23" s="11">
         <v>274500</v>
       </c>
+      <c r="G23" s="11" t="s">
+        <v>27</v>
+      </c>
       <c r="H23" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="I23" s="11" t="s">
-        <v>27</v>
+      <c r="I23" s="11">
+        <v>0</v>
       </c>
       <c r="J23" s="11">
-        <v>0</v>
+        <v>48500</v>
       </c>
       <c r="K23" s="11">
-        <v>48500</v>
+        <v>0</v>
       </c>
       <c r="L23" s="11">
-        <v>0</v>
+        <v>3600</v>
       </c>
       <c r="M23" s="11">
-        <v>3600</v>
-      </c>
-    </row>
-    <row r="24" spans="2:13" x14ac:dyDescent="0.25">
+        <v>600000</v>
+      </c>
+    </row>
+    <row r="24" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B24" s="14" t="s">
         <v>39</v>
       </c>
       <c r="C24" s="15"/>
       <c r="D24" s="15">
-        <v>84780</v>
+        <v>-441980</v>
       </c>
       <c r="E24" s="15">
-        <v>-441980</v>
+        <v>-138000</v>
       </c>
       <c r="F24" s="15">
-        <v>-138000</v>
-      </c>
-      <c r="G24" s="15">
         <v>138000</v>
       </c>
+      <c r="G24" s="15" t="s">
+        <v>27</v>
+      </c>
       <c r="H24" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="I24" s="15" t="s">
-        <v>27</v>
+      <c r="I24" s="15">
+        <v>0</v>
       </c>
       <c r="J24" s="15">
-        <v>0</v>
+        <v>-20000</v>
       </c>
       <c r="K24" s="15">
-        <v>-20000</v>
+        <v>-700000</v>
       </c>
       <c r="L24" s="15">
-        <v>-700000</v>
+        <v>-557690</v>
       </c>
       <c r="M24" s="15">
-        <v>-557690</v>
-      </c>
-    </row>
-    <row r="25" spans="2:13" x14ac:dyDescent="0.25">
+        <v>-600000</v>
+      </c>
+    </row>
+    <row r="25" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B25" s="10" t="s">
         <v>40</v>
       </c>
       <c r="C25" s="11"/>
       <c r="D25" s="11">
-        <v>98603</v>
+        <v>60451</v>
       </c>
       <c r="E25" s="11">
-        <v>60451</v>
+        <v>149419</v>
       </c>
       <c r="F25" s="11">
-        <v>149419</v>
-      </c>
-      <c r="G25" s="11">
         <v>-82419</v>
       </c>
+      <c r="G25" s="11" t="s">
+        <v>27</v>
+      </c>
       <c r="H25" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="I25" s="11" t="s">
-        <v>27</v>
+      <c r="I25" s="11">
+        <v>0</v>
       </c>
       <c r="J25" s="11">
         <v>0</v>
@@ -1425,13 +1425,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B26" s="14" t="s">
         <v>41</v>
       </c>
       <c r="C26" s="15"/>
       <c r="D26" s="15">
-        <v>7697</v>
+        <v>0</v>
       </c>
       <c r="E26" s="15">
         <v>0</v>
@@ -1439,20 +1439,20 @@
       <c r="F26" s="15">
         <v>0</v>
       </c>
-      <c r="G26" s="15">
-        <v>0</v>
+      <c r="G26" s="15" t="s">
+        <v>27</v>
       </c>
       <c r="H26" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="I26" s="15" t="s">
-        <v>27</v>
+      <c r="I26" s="15">
+        <v>0</v>
       </c>
       <c r="J26" s="15">
-        <v>0</v>
+        <v>-1883</v>
       </c>
       <c r="K26" s="15">
-        <v>-1883</v>
+        <v>0</v>
       </c>
       <c r="L26" s="15">
         <v>0</v>
@@ -1461,7 +1461,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B27" s="10" t="s">
         <v>42</v>
       </c>
@@ -1475,14 +1475,14 @@
       <c r="F27" s="11">
         <v>0</v>
       </c>
-      <c r="G27" s="11">
-        <v>0</v>
+      <c r="G27" s="11" t="s">
+        <v>27</v>
       </c>
       <c r="H27" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="I27" s="11" t="s">
-        <v>27</v>
+      <c r="I27" s="11">
+        <v>0</v>
       </c>
       <c r="J27" s="11">
         <v>0</v>
@@ -1497,7 +1497,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B28" s="14" t="s">
         <v>43</v>
       </c>
@@ -1511,14 +1511,14 @@
       <c r="F28" s="15">
         <v>0</v>
       </c>
-      <c r="G28" s="15">
-        <v>0</v>
+      <c r="G28" s="15" t="s">
+        <v>27</v>
       </c>
       <c r="H28" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="I28" s="15" t="s">
-        <v>27</v>
+      <c r="I28" s="15">
+        <v>0</v>
       </c>
       <c r="J28" s="15">
         <v>0</v>
@@ -1533,7 +1533,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B29" s="10" t="s">
         <v>44</v>
       </c>
@@ -1547,14 +1547,14 @@
       <c r="F29" s="11">
         <v>0</v>
       </c>
-      <c r="G29" s="11">
-        <v>0</v>
+      <c r="G29" s="11" t="s">
+        <v>27</v>
       </c>
       <c r="H29" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="I29" s="11" t="s">
-        <v>27</v>
+      <c r="I29" s="11">
+        <v>0</v>
       </c>
       <c r="J29" s="11">
         <v>0</v>
@@ -1569,28 +1569,28 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B30" s="14" t="s">
         <v>45</v>
       </c>
       <c r="C30" s="15"/>
       <c r="D30" s="15">
-        <v>-76</v>
+        <v>58</v>
       </c>
       <c r="E30" s="15">
-        <v>58</v>
+        <v>0</v>
       </c>
       <c r="F30" s="15">
         <v>0</v>
       </c>
-      <c r="G30" s="15">
-        <v>0</v>
+      <c r="G30" s="15" t="s">
+        <v>27</v>
       </c>
       <c r="H30" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="I30" s="15" t="s">
-        <v>27</v>
+      <c r="I30" s="15">
+        <v>0</v>
       </c>
       <c r="J30" s="15">
         <v>0</v>
@@ -1605,115 +1605,115 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B31" s="10" t="s">
         <v>46</v>
       </c>
       <c r="C31" s="11"/>
       <c r="D31" s="11">
-        <v>21742</v>
+        <v>-1606</v>
       </c>
       <c r="E31" s="11">
-        <v>-1606</v>
+        <v>25217</v>
       </c>
       <c r="F31" s="11">
-        <v>25217</v>
-      </c>
-      <c r="G31" s="11">
         <v>10034</v>
       </c>
+      <c r="G31" s="11" t="s">
+        <v>27</v>
+      </c>
       <c r="H31" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="I31" s="11" t="s">
-        <v>27</v>
+      <c r="I31" s="11">
+        <v>7954</v>
       </c>
       <c r="J31" s="11">
-        <v>7954</v>
+        <v>6135</v>
       </c>
       <c r="K31" s="11">
-        <v>6135</v>
+        <v>13542</v>
       </c>
       <c r="L31" s="11">
-        <v>13542</v>
+        <v>67496</v>
       </c>
       <c r="M31" s="11">
-        <v>67496</v>
-      </c>
-    </row>
-    <row r="32" spans="2:13" x14ac:dyDescent="0.25">
+        <v>35744</v>
+      </c>
+    </row>
+    <row r="32" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B32" s="16" t="s">
         <v>47</v>
       </c>
       <c r="C32" s="17"/>
       <c r="D32" s="17">
-        <v>63814</v>
+        <v>-292142</v>
       </c>
       <c r="E32" s="17">
-        <v>-292142</v>
+        <v>24498</v>
       </c>
       <c r="F32" s="17">
-        <v>24498</v>
-      </c>
-      <c r="G32" s="17">
         <v>66966</v>
       </c>
+      <c r="G32" s="17" t="s">
+        <v>27</v>
+      </c>
       <c r="H32" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="I32" s="17" t="s">
-        <v>27</v>
+      <c r="I32" s="17">
+        <v>-112268</v>
       </c>
       <c r="J32" s="17">
-        <v>-112268</v>
+        <v>-113397</v>
       </c>
       <c r="K32" s="17">
-        <v>-113397</v>
+        <v>-759532</v>
       </c>
       <c r="L32" s="17">
-        <v>-759532</v>
+        <v>-918431</v>
       </c>
       <c r="M32" s="17">
-        <v>-918431</v>
-      </c>
-    </row>
-    <row r="33" spans="2:13" x14ac:dyDescent="0.25">
+        <v>-383347</v>
+      </c>
+    </row>
+    <row r="33" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B33" s="18" t="s">
         <v>48</v>
       </c>
       <c r="C33" s="19"/>
       <c r="D33" s="19">
-        <v>334050</v>
+        <v>-110190</v>
       </c>
       <c r="E33" s="19">
-        <v>-110190</v>
+        <v>429444</v>
       </c>
       <c r="F33" s="19">
-        <v>429444</v>
-      </c>
-      <c r="G33" s="19">
         <v>226783</v>
       </c>
+      <c r="G33" s="19" t="s">
+        <v>27</v>
+      </c>
       <c r="H33" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="I33" s="19" t="s">
-        <v>27</v>
+      <c r="I33" s="19">
+        <v>894894</v>
       </c>
       <c r="J33" s="19">
-        <v>894894</v>
+        <v>1299299</v>
       </c>
       <c r="K33" s="19">
-        <v>1299299</v>
+        <v>39062</v>
       </c>
       <c r="L33" s="19">
-        <v>39062</v>
+        <v>636526</v>
       </c>
       <c r="M33" s="19">
-        <v>636526</v>
-      </c>
-    </row>
-    <row r="34" spans="2:13" x14ac:dyDescent="0.25">
+        <v>692323</v>
+      </c>
+    </row>
+    <row r="34" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B34" s="12" t="s">
         <v>49</v>
       </c>
@@ -1729,7 +1729,7 @@
       <c r="L34" s="13"/>
       <c r="M34" s="13"/>
     </row>
-    <row r="35" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B35" s="14" t="s">
         <v>50</v>
       </c>
@@ -1743,14 +1743,14 @@
       <c r="F35" s="15">
         <v>0</v>
       </c>
-      <c r="G35" s="15">
-        <v>0</v>
+      <c r="G35" s="15" t="s">
+        <v>27</v>
       </c>
       <c r="H35" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="I35" s="15" t="s">
-        <v>27</v>
+      <c r="I35" s="15">
+        <v>0</v>
       </c>
       <c r="J35" s="15">
         <v>0</v>
@@ -1765,7 +1765,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B36" s="10" t="s">
         <v>51</v>
       </c>
@@ -1794,14 +1794,14 @@
       <c r="K36" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="L36" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="M36" s="11" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="37" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="L36" s="11">
+        <v>0</v>
+      </c>
+      <c r="M36" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B37" s="14" t="s">
         <v>52</v>
       </c>
@@ -1815,86 +1815,86 @@
       <c r="F37" s="15">
         <v>0</v>
       </c>
-      <c r="G37" s="15">
-        <v>0</v>
+      <c r="G37" s="15" t="s">
+        <v>27</v>
       </c>
       <c r="H37" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="I37" s="15" t="s">
-        <v>27</v>
+      <c r="I37" s="15">
+        <v>0</v>
       </c>
       <c r="J37" s="15">
-        <v>0</v>
+        <v>866793</v>
       </c>
       <c r="K37" s="15">
-        <v>866793</v>
+        <v>0</v>
       </c>
       <c r="L37" s="15">
-        <v>0</v>
+        <v>2931</v>
       </c>
       <c r="M37" s="15">
-        <v>2931</v>
-      </c>
-    </row>
-    <row r="38" spans="2:13" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B38" s="10" t="s">
         <v>53</v>
       </c>
       <c r="C38" s="11"/>
       <c r="D38" s="11">
-        <v>0</v>
+        <v>-119999</v>
       </c>
       <c r="E38" s="11">
-        <v>-119999</v>
+        <v>0</v>
       </c>
       <c r="F38" s="11">
-        <v>0</v>
-      </c>
-      <c r="G38" s="11">
         <v>-196345</v>
       </c>
+      <c r="G38" s="11" t="s">
+        <v>27</v>
+      </c>
       <c r="H38" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="I38" s="11" t="s">
-        <v>27</v>
+      <c r="I38" s="11">
+        <v>0</v>
       </c>
       <c r="J38" s="11">
-        <v>0</v>
+        <v>-979504</v>
       </c>
       <c r="K38" s="11">
-        <v>-979504</v>
+        <v>0</v>
       </c>
       <c r="L38" s="11">
-        <v>0</v>
+        <v>-57207</v>
       </c>
       <c r="M38" s="11">
-        <v>-57207</v>
-      </c>
-    </row>
-    <row r="39" spans="2:13" x14ac:dyDescent="0.25">
+        <v>-6369</v>
+      </c>
+    </row>
+    <row r="39" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B39" s="14" t="s">
         <v>54</v>
       </c>
       <c r="C39" s="15"/>
       <c r="D39" s="15">
-        <v>201287</v>
+        <v>77500</v>
       </c>
       <c r="E39" s="15">
-        <v>77500</v>
+        <v>0</v>
       </c>
       <c r="F39" s="15">
-        <v>0</v>
-      </c>
-      <c r="G39" s="15">
         <v>175000</v>
       </c>
+      <c r="G39" s="15" t="s">
+        <v>27</v>
+      </c>
       <c r="H39" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="I39" s="15" t="s">
-        <v>27</v>
+      <c r="I39" s="15">
+        <v>0</v>
       </c>
       <c r="J39" s="15">
         <v>0</v>
@@ -1903,85 +1903,85 @@
         <v>0</v>
       </c>
       <c r="L39" s="15">
-        <v>0</v>
+        <v>59895</v>
       </c>
       <c r="M39" s="15">
-        <v>59895</v>
-      </c>
-    </row>
-    <row r="40" spans="2:13" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B40" s="10" t="s">
         <v>55</v>
       </c>
       <c r="C40" s="11"/>
       <c r="D40" s="11">
-        <v>-68048</v>
+        <v>38379</v>
       </c>
       <c r="E40" s="11">
-        <v>38379</v>
+        <v>-97371</v>
       </c>
       <c r="F40" s="11">
-        <v>-97371</v>
-      </c>
-      <c r="G40" s="11">
         <v>-161337</v>
       </c>
+      <c r="G40" s="11" t="s">
+        <v>27</v>
+      </c>
       <c r="H40" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="I40" s="11" t="s">
-        <v>27</v>
+      <c r="I40" s="11">
+        <v>-151391</v>
       </c>
       <c r="J40" s="11">
-        <v>-151391</v>
+        <v>-143405</v>
       </c>
       <c r="K40" s="11">
-        <v>-143405</v>
+        <v>-1869</v>
       </c>
       <c r="L40" s="11">
-        <v>-1869</v>
+        <v>-60781</v>
       </c>
       <c r="M40" s="11">
-        <v>-60781</v>
-      </c>
-    </row>
-    <row r="41" spans="2:13" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B41" s="14" t="s">
         <v>56</v>
       </c>
       <c r="C41" s="15"/>
       <c r="D41" s="15">
-        <v>-21435</v>
+        <v>25093</v>
       </c>
       <c r="E41" s="15">
-        <v>25093</v>
+        <v>-14780</v>
       </c>
       <c r="F41" s="15">
-        <v>-14780</v>
-      </c>
-      <c r="G41" s="15">
         <v>-24818</v>
       </c>
+      <c r="G41" s="15" t="s">
+        <v>27</v>
+      </c>
       <c r="H41" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="I41" s="15" t="s">
-        <v>27</v>
+      <c r="I41" s="15">
+        <v>-13975</v>
       </c>
       <c r="J41" s="15">
-        <v>-13975</v>
+        <v>947</v>
       </c>
       <c r="K41" s="15">
-        <v>947</v>
+        <v>0</v>
       </c>
       <c r="L41" s="15">
-        <v>0</v>
+        <v>-12379</v>
       </c>
       <c r="M41" s="15">
-        <v>-12379</v>
-      </c>
-    </row>
-    <row r="42" spans="2:13" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B42" s="10" t="s">
         <v>57</v>
       </c>
@@ -1995,14 +1995,14 @@
       <c r="F42" s="11">
         <v>0</v>
       </c>
-      <c r="G42" s="11">
-        <v>0</v>
+      <c r="G42" s="11" t="s">
+        <v>27</v>
       </c>
       <c r="H42" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="I42" s="11" t="s">
-        <v>27</v>
+      <c r="I42" s="11">
+        <v>0</v>
       </c>
       <c r="J42" s="11">
         <v>0</v>
@@ -2017,7 +2017,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B43" s="14" t="s">
         <v>58</v>
       </c>
@@ -2031,14 +2031,14 @@
       <c r="F43" s="15">
         <v>0</v>
       </c>
-      <c r="G43" s="15">
-        <v>0</v>
+      <c r="G43" s="15" t="s">
+        <v>27</v>
       </c>
       <c r="H43" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="I43" s="15" t="s">
-        <v>27</v>
+      <c r="I43" s="15">
+        <v>0</v>
       </c>
       <c r="J43" s="15">
         <v>0</v>
@@ -2053,7 +2053,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B44" s="10" t="s">
         <v>59</v>
       </c>
@@ -2067,14 +2067,14 @@
       <c r="F44" s="11">
         <v>0</v>
       </c>
-      <c r="G44" s="11">
-        <v>0</v>
+      <c r="G44" s="11" t="s">
+        <v>27</v>
       </c>
       <c r="H44" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="I44" s="11" t="s">
-        <v>27</v>
+      <c r="I44" s="11">
+        <v>0</v>
       </c>
       <c r="J44" s="11">
         <v>0</v>
@@ -2089,7 +2089,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B45" s="14" t="s">
         <v>60</v>
       </c>
@@ -2103,14 +2103,14 @@
       <c r="F45" s="15">
         <v>0</v>
       </c>
-      <c r="G45" s="15">
-        <v>0</v>
+      <c r="G45" s="15" t="s">
+        <v>27</v>
       </c>
       <c r="H45" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="I45" s="15" t="s">
-        <v>27</v>
+      <c r="I45" s="15">
+        <v>0</v>
       </c>
       <c r="J45" s="15">
         <v>0</v>
@@ -2125,7 +2125,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B46" s="10" t="s">
         <v>61</v>
       </c>
@@ -2139,14 +2139,14 @@
       <c r="F46" s="11">
         <v>0</v>
       </c>
-      <c r="G46" s="11">
-        <v>0</v>
+      <c r="G46" s="11" t="s">
+        <v>27</v>
       </c>
       <c r="H46" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="I46" s="11" t="s">
-        <v>27</v>
+      <c r="I46" s="11">
+        <v>0</v>
       </c>
       <c r="J46" s="11">
         <v>0</v>
@@ -2161,7 +2161,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B47" s="14" t="s">
         <v>62</v>
       </c>
@@ -2175,14 +2175,14 @@
       <c r="F47" s="15">
         <v>0</v>
       </c>
-      <c r="G47" s="15">
-        <v>0</v>
+      <c r="G47" s="15" t="s">
+        <v>27</v>
       </c>
       <c r="H47" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="I47" s="15" t="s">
-        <v>27</v>
+      <c r="I47" s="15">
+        <v>0</v>
       </c>
       <c r="J47" s="15">
         <v>0</v>
@@ -2197,7 +2197,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B48" s="10" t="s">
         <v>63</v>
       </c>
@@ -2211,14 +2211,14 @@
       <c r="F48" s="11">
         <v>0</v>
       </c>
-      <c r="G48" s="11">
-        <v>0</v>
+      <c r="G48" s="11" t="s">
+        <v>27</v>
       </c>
       <c r="H48" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="I48" s="11" t="s">
-        <v>27</v>
+      <c r="I48" s="11">
+        <v>0</v>
       </c>
       <c r="J48" s="11">
         <v>0</v>
@@ -2233,7 +2233,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B49" s="14" t="s">
         <v>64</v>
       </c>
@@ -2247,14 +2247,14 @@
       <c r="F49" s="15">
         <v>0</v>
       </c>
-      <c r="G49" s="15">
-        <v>0</v>
+      <c r="G49" s="15" t="s">
+        <v>27</v>
       </c>
       <c r="H49" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="I49" s="15" t="s">
-        <v>27</v>
+      <c r="I49" s="15">
+        <v>0</v>
       </c>
       <c r="J49" s="15">
         <v>0</v>
@@ -2269,223 +2269,223 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B50" s="10" t="s">
         <v>65</v>
       </c>
       <c r="C50" s="11"/>
       <c r="D50" s="11">
-        <v>-412645</v>
+        <v>-33916</v>
       </c>
       <c r="E50" s="11">
-        <v>-33916</v>
+        <v>-32</v>
       </c>
       <c r="F50" s="11">
-        <v>-32</v>
-      </c>
-      <c r="G50" s="11">
         <v>-542293</v>
       </c>
+      <c r="G50" s="11" t="s">
+        <v>27</v>
+      </c>
       <c r="H50" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="I50" s="11" t="s">
-        <v>27</v>
+      <c r="I50" s="11">
+        <v>-471763</v>
       </c>
       <c r="J50" s="11">
-        <v>-471763</v>
+        <v>-422601</v>
       </c>
       <c r="K50" s="11">
-        <v>-422601</v>
+        <v>-241005</v>
       </c>
       <c r="L50" s="11">
-        <v>-241005</v>
+        <v>-4553</v>
       </c>
       <c r="M50" s="11">
-        <v>-4553</v>
-      </c>
-    </row>
-    <row r="51" spans="2:13" x14ac:dyDescent="0.25">
+        <v>-54154</v>
+      </c>
+    </row>
+    <row r="51" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B51" s="16" t="s">
         <v>66</v>
       </c>
       <c r="C51" s="17"/>
       <c r="D51" s="17">
-        <v>-300841</v>
+        <v>-12943</v>
       </c>
       <c r="E51" s="17">
-        <v>-12943</v>
+        <v>-112183</v>
       </c>
       <c r="F51" s="17">
-        <v>-112183</v>
-      </c>
-      <c r="G51" s="17">
         <v>-749793</v>
       </c>
+      <c r="G51" s="17" t="s">
+        <v>27</v>
+      </c>
       <c r="H51" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="I51" s="17" t="s">
-        <v>27</v>
+      <c r="I51" s="17">
+        <v>-637129</v>
       </c>
       <c r="J51" s="17">
-        <v>-637129</v>
+        <v>-677770</v>
       </c>
       <c r="K51" s="17">
-        <v>-677770</v>
+        <v>-242874</v>
       </c>
       <c r="L51" s="17">
-        <v>-242874</v>
+        <v>-72094</v>
       </c>
       <c r="M51" s="17">
-        <v>-72094</v>
-      </c>
-    </row>
-    <row r="52" spans="2:13" x14ac:dyDescent="0.25">
+        <v>-60523</v>
+      </c>
+    </row>
+    <row r="52" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B52" s="18" t="s">
         <v>67</v>
       </c>
       <c r="C52" s="19"/>
       <c r="D52" s="19">
-        <v>33209</v>
+        <v>-123133</v>
       </c>
       <c r="E52" s="19">
-        <v>-123133</v>
+        <v>317261</v>
       </c>
       <c r="F52" s="19">
-        <v>317261</v>
-      </c>
-      <c r="G52" s="19">
         <v>-523010</v>
       </c>
+      <c r="G52" s="19" t="s">
+        <v>27</v>
+      </c>
       <c r="H52" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="I52" s="19" t="s">
-        <v>27</v>
+      <c r="I52" s="19">
+        <v>257765</v>
       </c>
       <c r="J52" s="19">
-        <v>257765</v>
+        <v>621529</v>
       </c>
       <c r="K52" s="19">
-        <v>621529</v>
+        <v>-203812</v>
       </c>
       <c r="L52" s="19">
-        <v>-203812</v>
+        <v>564432</v>
       </c>
       <c r="M52" s="19">
-        <v>564432</v>
-      </c>
-    </row>
-    <row r="53" spans="2:13" x14ac:dyDescent="0.25">
+        <v>631800</v>
+      </c>
+    </row>
+    <row r="53" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B53" s="14" t="s">
         <v>68</v>
       </c>
       <c r="C53" s="15"/>
       <c r="D53" s="15">
-        <v>494139</v>
+        <v>527334</v>
       </c>
       <c r="E53" s="15">
-        <v>527334</v>
+        <v>527797</v>
       </c>
       <c r="F53" s="15">
-        <v>527797</v>
-      </c>
-      <c r="G53" s="15">
         <v>845058</v>
       </c>
+      <c r="G53" s="15" t="s">
+        <v>27</v>
+      </c>
       <c r="H53" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="I53" s="15" t="s">
-        <v>27</v>
+      <c r="I53" s="15">
+        <v>707883</v>
       </c>
       <c r="J53" s="15">
-        <v>707883</v>
+        <v>965648</v>
       </c>
       <c r="K53" s="15">
-        <v>965648</v>
+        <v>1598224</v>
       </c>
       <c r="L53" s="15">
-        <v>1598224</v>
+        <v>1383789</v>
       </c>
       <c r="M53" s="15">
-        <v>1383789</v>
-      </c>
-    </row>
-    <row r="54" spans="2:13" x14ac:dyDescent="0.25">
+        <v>1947797</v>
+      </c>
+    </row>
+    <row r="54" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B54" s="10" t="s">
         <v>69</v>
       </c>
       <c r="C54" s="11"/>
       <c r="D54" s="11">
-        <v>-14</v>
+        <v>3488</v>
       </c>
       <c r="E54" s="11">
-        <v>3488</v>
+        <v>0</v>
       </c>
       <c r="F54" s="11">
-        <v>0</v>
-      </c>
-      <c r="G54" s="11">
         <v>1847</v>
       </c>
+      <c r="G54" s="11" t="s">
+        <v>27</v>
+      </c>
       <c r="H54" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="I54" s="11" t="s">
-        <v>27</v>
+      <c r="I54" s="11">
+        <v>0</v>
       </c>
       <c r="J54" s="11">
-        <v>0</v>
+        <v>11047</v>
       </c>
       <c r="K54" s="11">
-        <v>11047</v>
+        <v>-10622</v>
       </c>
       <c r="L54" s="11">
-        <v>-10622</v>
+        <v>-425</v>
       </c>
       <c r="M54" s="11">
-        <v>-425</v>
-      </c>
-    </row>
-    <row r="55" spans="2:13" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B55" s="16" t="s">
         <v>70</v>
       </c>
       <c r="C55" s="17"/>
       <c r="D55" s="17">
-        <v>527334</v>
+        <v>697438</v>
       </c>
       <c r="E55" s="17">
-        <v>697438</v>
+        <v>845058</v>
       </c>
       <c r="F55" s="17">
-        <v>845058</v>
-      </c>
-      <c r="G55" s="17">
         <v>493536</v>
       </c>
+      <c r="G55" s="17" t="s">
+        <v>27</v>
+      </c>
       <c r="H55" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="I55" s="17" t="s">
-        <v>27</v>
+      <c r="I55" s="17">
+        <v>965648</v>
       </c>
       <c r="J55" s="17">
-        <v>965648</v>
+        <v>1598224</v>
       </c>
       <c r="K55" s="17">
-        <v>1598224</v>
+        <v>1383789</v>
       </c>
       <c r="L55" s="17">
-        <v>1383789</v>
+        <v>1947797</v>
       </c>
       <c r="M55" s="17">
-        <v>1947797</v>
-      </c>
-    </row>
-    <row r="56" spans="2:13" x14ac:dyDescent="0.25">
+        <v>2579597</v>
+      </c>
+    </row>
+    <row r="56" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B56" s="10" t="s">
         <v>71</v>
       </c>
@@ -2499,14 +2499,14 @@
       <c r="F56" s="11">
         <v>0</v>
       </c>
-      <c r="G56" s="11">
-        <v>0</v>
+      <c r="G56" s="11" t="s">
+        <v>27</v>
       </c>
       <c r="H56" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="I56" s="11" t="s">
-        <v>27</v>
+      <c r="I56" s="11">
+        <v>0</v>
       </c>
       <c r="J56" s="11">
         <v>0</v>
@@ -2521,7 +2521,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B57" s="1"/>
       <c r="C57" s="1"/>
       <c r="D57" s="1"/>
